--- a/plots/students_leaderboard_V2.xlsx
+++ b/plots/students_leaderboard_V2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/lukas_thede_bwedu_de/Documents/EML/ContDistCode/repsssl/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85EB8DF4-D95A-4CBD-BF24-C086426BC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{85EB8DF4-D95A-4CBD-BF24-C086426BC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19564B5F-9D6E-4B18-9808-C3680992AA30}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students_leaderboard" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">students_leaderboard!$A$1:$O$151</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -223,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1111,12 +1124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10096,7 +10109,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -10176,7 +10189,7 @@
         <v>2.3159999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -10256,7 +10269,7 @@
         <v>2.4219999999999899</v>
       </c>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>118</v>
       </c>
@@ -10336,7 +10349,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -10416,7 +10429,7 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>120</v>
       </c>
@@ -10496,7 +10509,7 @@
         <v>4.0134999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>119</v>
       </c>
@@ -10576,7 +10589,7 @@
         <v>1.1664999999999901</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>114</v>
       </c>
@@ -10656,7 +10669,7 @@
         <v>2.4434999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>115</v>
       </c>
@@ -10736,7 +10749,7 @@
         <v>1.421</v>
       </c>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>116</v>
       </c>
@@ -10816,7 +10829,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>117</v>
       </c>
@@ -10896,7 +10909,7 @@
         <v>2.8824999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -10976,7 +10989,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -11056,7 +11069,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -11136,7 +11149,7 @@
         <v>1.5819999999999901</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -11216,7 +11229,7 @@
         <v>2.59499999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -11296,7 +11309,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -11376,7 +11389,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -11456,7 +11469,7 @@
         <v>2.7330000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -11536,7 +11549,7 @@
         <v>2.7355</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -13217,7 +13230,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O151">
+  <autoFilter ref="A1:O151" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="KL+MT_Dist"/>
@@ -13225,7 +13238,7 @@
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="mlp"/>
+        <filter val="cnn"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A123:O131">

--- a/plots/students_leaderboard_V2.xlsx
+++ b/plots/students_leaderboard_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/lukas_thede_bwedu_de/Documents/EML/ContDistCode/repsssl/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{85EB8DF4-D95A-4CBD-BF24-C086426BC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19564B5F-9D6E-4B18-9808-C3680992AA30}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{85EB8DF4-D95A-4CBD-BF24-C086426BC3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C43015-76AD-4ABF-8FB3-AB15067C5442}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -770,6 +770,7 @@
     <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -826,6 +827,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9229,7 +9234,7 @@
         <v>76.287999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -9309,7 +9314,7 @@
         <v>1.7515000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>106</v>
       </c>
@@ -9389,7 +9394,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -9469,7 +9474,7 @@
         <v>1.0035000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>109</v>
       </c>
@@ -9549,7 +9554,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>102</v>
       </c>
@@ -9629,7 +9634,7 @@
         <v>1.7010000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>107</v>
       </c>
@@ -9709,7 +9714,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>103</v>
       </c>
@@ -9789,7 +9794,7 @@
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -9869,7 +9874,7 @@
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>110</v>
       </c>
@@ -9949,7 +9954,7 @@
         <v>2.0005000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>105</v>
       </c>
@@ -10029,7 +10034,7 @@
         <v>0.96849999999999903</v>
       </c>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>104</v>
       </c>
@@ -10909,7 +10914,7 @@
         <v>2.8824999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -10989,7 +10994,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -11149,7 +11154,7 @@
         <v>1.5819999999999901</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -11229,7 +11234,7 @@
         <v>2.59499999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -11309,7 +11314,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -11389,7 +11394,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -11469,7 +11474,7 @@
         <v>2.7330000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -11549,7 +11554,7 @@
         <v>2.7355</v>
       </c>
     </row>
-    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -13228,17 +13233,15 @@
       <c r="Z151" s="5">
         <v>2.8714999999999899</v>
       </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="N153" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O151" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="KL+MT_Dist"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="cnn"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A123:O131">
